--- a/docs/Diagrama de Classes/Quadros CRC - editável.xlsx
+++ b/docs/Diagrama de Classes/Quadros CRC - editável.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Classe: Usuário (Entidade)</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Nenhum</t>
   </si>
   <si>
-    <t>Conhecer a data da ocorrência.</t>
-  </si>
-  <si>
     <t>Classe: Nota (Entidade)</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>Conhecer seu peso para o cálculo da média.</t>
-  </si>
-  <si>
-    <t>Calcular seu valor ponderado.</t>
   </si>
 </sst>
 </file>
@@ -649,54 +643,41 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29">
-      <c r="B29" s="4" t="s">
+    <row r="30">
+      <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="11"/>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>3</v>
+      <c r="C32" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="8"/>
+      <c r="C33" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
